--- a/data/generated/excel/vehicles_by_type.xlsx
+++ b/data/generated/excel/vehicles_by_type.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E308"/>
+  <dimension ref="A1:E270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,11 +514,7 @@
           <t>W</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>E1</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -537,11 +533,7 @@
           <t>W</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>E1</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,11 +571,7 @@
           <t>W</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>E1</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -621,11 +609,7 @@
           <t>W</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>E1</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -644,7 +628,11 @@
           <t>W</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -663,11 +651,7 @@
           <t>W</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>E1</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -743,11 +727,7 @@
           <t>W</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>E1</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -823,11 +803,7 @@
           <t>W</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>E1</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -903,11 +879,7 @@
           <t>W</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>E1</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -987,11 +959,7 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>105N</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1086,11 +1054,7 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>105N</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1109,11 +1073,7 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>105N</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1132,11 +1092,7 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>105N</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1174,7 +1130,11 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>105N</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1212,7 +1172,11 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>105N</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1254,11 +1218,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>GT8N</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1277,7 +1237,11 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>GT8N</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1342,11 +1306,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>GT8N</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1407,11 +1367,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>GT8N</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1449,11 +1405,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>GT8C</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1472,11 +1424,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>GT8C</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1495,11 +1443,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>GT8C</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1518,11 +1462,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>GT8N</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1541,7 +1481,11 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>GT8N</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1560,11 +1504,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>GT8N</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1606,11 +1546,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>GT8N</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1648,7 +1584,11 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>GT8N</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1755,11 +1695,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>GT8N</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1778,11 +1714,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>GT8N</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1881,11 +1813,7 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>EU8N</t>
-        </is>
-      </c>
+      <c r="E69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1904,7 +1832,11 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>EU8N</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1961,11 +1893,7 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>EU8N</t>
-        </is>
-      </c>
+      <c r="E73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1984,11 +1912,7 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>EU8N</t>
-        </is>
-      </c>
+      <c r="E74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2007,11 +1931,7 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>EU8N</t>
-        </is>
-      </c>
+      <c r="E75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2053,11 +1973,7 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>EU8N</t>
-        </is>
-      </c>
+      <c r="E77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2164,11 +2080,7 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>EU8N</t>
-        </is>
-      </c>
+      <c r="E82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2187,7 +2099,11 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>EU8N</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2206,18 +2122,14 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>EU8N</t>
-        </is>
-      </c>
+      <c r="E84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2229,18 +2141,14 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>EU8N</t>
-        </is>
-      </c>
+      <c r="E85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2259,7 +2167,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2271,14 +2179,18 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>EU8N</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2301,7 +2213,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2324,7 +2236,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2347,7 +2259,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2359,18 +2271,14 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>EU8N</t>
-        </is>
-      </c>
+      <c r="E91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2393,7 +2301,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2416,7 +2324,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2435,7 +2343,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2447,14 +2355,18 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>EU8N</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2473,7 +2385,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2492,7 +2404,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2504,14 +2416,18 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>EU8N</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2534,7 +2450,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2546,18 +2462,14 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>EU8N</t>
-        </is>
-      </c>
+      <c r="E100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2576,7 +2488,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2588,14 +2500,18 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>EU8N</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2614,7 +2530,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2626,18 +2542,14 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>EU8N</t>
-        </is>
-      </c>
+      <c r="E104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2649,14 +2561,18 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>EU8N</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2665,12 +2581,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>EU8N</t>
+          <t>N8C-NF</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2595,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2691,18 +2607,14 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>N8C-NF</t>
-        </is>
-      </c>
+      <c r="E107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2721,7 +2633,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2740,7 +2652,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2759,7 +2671,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2778,7 +2690,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2790,14 +2702,18 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>N8S-NF</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2809,56 +2725,60 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>N8S-NF</t>
-        </is>
-      </c>
+      <c r="E113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>461</v>
+        <v>601</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr"/>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>NGT6 (1)</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>462</v>
+        <v>602</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr"/>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>NGT6 (1)</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2870,14 +2790,18 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>NGT6 (1)</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2889,18 +2813,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>NGT6 (1)</t>
-        </is>
-      </c>
+      <c r="E117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2923,7 +2843,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2942,7 +2862,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2965,7 +2885,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2984,7 +2904,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -3003,7 +2923,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -3026,7 +2946,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -3038,18 +2958,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>NGT6 (1)</t>
-        </is>
-      </c>
+      <c r="E124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -3061,18 +2977,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>NGT6 (1)</t>
-        </is>
-      </c>
+      <c r="E125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -3084,14 +2996,18 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>NGT6 (1)</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -3114,7 +3030,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3126,14 +3042,18 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>NGT6 (2)</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -3147,7 +3067,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>NGT6 (1)</t>
+          <t>NGT6 (2)</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3076,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -3168,14 +3088,18 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>NGT6 (2)</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3187,18 +3111,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>NGT6 (2)</t>
-        </is>
-      </c>
+      <c r="E131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3210,18 +3130,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>NGT6 (2)</t>
-        </is>
-      </c>
+      <c r="E132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -3233,18 +3149,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>NGT6 (2)</t>
-        </is>
-      </c>
+      <c r="E133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -3267,7 +3179,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3290,7 +3202,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3313,7 +3225,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3325,18 +3237,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>NGT6 (2)</t>
-        </is>
-      </c>
+      <c r="E137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3350,7 +3258,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>NGT6 (2)</t>
+          <t>NGT6 (3)</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3267,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -3371,18 +3279,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>NGT6 (2)</t>
-        </is>
-      </c>
+      <c r="E139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -3394,18 +3298,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>NGT6 (2)</t>
-        </is>
-      </c>
+      <c r="E140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3424,7 +3324,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3447,7 +3347,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -3459,18 +3359,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>NGT6 (3)</t>
-        </is>
-      </c>
+      <c r="E143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -3489,7 +3385,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -3512,7 +3408,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3524,18 +3420,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>NGT6 (3)</t>
-        </is>
-      </c>
+      <c r="E146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3558,7 +3450,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3570,18 +3462,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>NGT6 (3)</t>
-        </is>
-      </c>
+      <c r="E148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3593,18 +3481,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>NGT6 (3)</t>
-        </is>
-      </c>
+      <c r="E149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3623,7 +3507,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3646,7 +3530,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3669,7 +3553,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3688,7 +3572,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3700,18 +3584,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>NGT6 (3)</t>
-        </is>
-      </c>
+      <c r="E154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3723,14 +3603,18 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>NGT6 (3)</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -3742,14 +3626,18 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>NGT6 (3)</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -3761,18 +3649,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>NGT6 (3)</t>
-        </is>
-      </c>
+      <c r="E157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -3795,7 +3679,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -3807,14 +3691,18 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>NGT6 (3)</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -3837,40 +3725,44 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>647</v>
+        <v>701</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr"/>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Stadler Tango II</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>648</v>
+        <v>702</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>NGT6 (3)</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -3879,21 +3771,21 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>649</v>
+        <v>705</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>NGT6 (3)</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -3902,21 +3794,21 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>650</v>
+        <v>706</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>NGT6 (3)</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -3925,7 +3817,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -3937,14 +3829,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Stadler Tango II</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -3967,7 +3863,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -3979,18 +3875,14 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
+      <c r="E167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -4013,7 +3905,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -4036,7 +3928,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -4059,7 +3951,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -4082,7 +3974,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -4094,18 +3986,14 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
+      <c r="E172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>710</v>
+        <v>724</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -4117,18 +4005,14 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
+      <c r="E173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>711</v>
+        <v>725</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -4140,18 +4024,14 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
+      <c r="E174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -4163,18 +4043,14 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
+      <c r="E175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -4197,7 +4073,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -4220,7 +4096,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -4243,7 +4119,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>718</v>
+        <v>731</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -4266,7 +4142,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -4289,7 +4165,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>720</v>
+        <v>735</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -4312,7 +4188,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>721</v>
+        <v>736</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -4335,7 +4211,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -4354,7 +4230,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -4377,7 +4253,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>725</v>
+        <v>743</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -4389,18 +4265,14 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
+      <c r="E185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -4412,18 +4284,22 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr"/>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Stadler Tango II</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>727</v>
+        <v>801</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4438,11 +4314,11 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>728</v>
+        <v>803</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4452,7 +4328,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Stadler Tango II</t>
+          <t>NGT8</t>
         </is>
       </c>
     </row>
@@ -4461,11 +4337,11 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>729</v>
+        <v>804</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4475,7 +4351,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Stadler Tango II</t>
+          <t>NGT8</t>
         </is>
       </c>
     </row>
@@ -4484,11 +4360,11 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>730</v>
+        <v>805</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4496,22 +4372,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
+      <c r="E190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>732</v>
+        <v>806</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4521,7 +4393,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Stadler Tango II</t>
+          <t>NGT8</t>
         </is>
       </c>
     </row>
@@ -4530,11 +4402,11 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>733</v>
+        <v>808</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4544,7 +4416,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Stadler Tango II</t>
+          <t>NGT8</t>
         </is>
       </c>
     </row>
@@ -4553,11 +4425,11 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>734</v>
+        <v>809</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4565,22 +4437,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
+      <c r="E193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>735</v>
+        <v>810</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4590,7 +4458,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Stadler Tango II</t>
+          <t>NGT8</t>
         </is>
       </c>
     </row>
@@ -4599,11 +4467,11 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>736</v>
+        <v>811</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4613,7 +4481,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Stadler Tango II</t>
+          <t>NGT8</t>
         </is>
       </c>
     </row>
@@ -4622,11 +4490,11 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>737</v>
+        <v>812</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4636,7 +4504,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Stadler Tango II</t>
+          <t>NGT8</t>
         </is>
       </c>
     </row>
@@ -4645,11 +4513,11 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>740</v>
+        <v>814</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -4657,22 +4525,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
+      <c r="E197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>741</v>
+        <v>815</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4680,22 +4544,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
+      <c r="E198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>742</v>
+        <v>817</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4705,7 +4565,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Stadler Tango II</t>
+          <t>NGT8</t>
         </is>
       </c>
     </row>
@@ -4714,11 +4574,11 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>743</v>
+        <v>818</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4728,7 +4588,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Stadler Tango II</t>
+          <t>NGT8</t>
         </is>
       </c>
     </row>
@@ -4737,11 +4597,11 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>744</v>
+        <v>819</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4749,22 +4609,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
+      <c r="E201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>745</v>
+        <v>820</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4772,18 +4628,14 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
+      <c r="E202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>801</v>
+        <v>821</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -4795,14 +4647,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr"/>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>NGT8</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>803</v>
+        <v>822</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -4814,18 +4670,14 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>NGT8</t>
-        </is>
-      </c>
+      <c r="E204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>804</v>
+        <v>824</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -4837,18 +4689,14 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>NGT8</t>
-        </is>
-      </c>
+      <c r="E205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>805</v>
+        <v>825</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -4860,18 +4708,14 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>NGT8</t>
-        </is>
-      </c>
+      <c r="E206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>806</v>
+        <v>826</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -4885,7 +4729,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>NGT8</t>
+          <t>Stadler Tango</t>
         </is>
       </c>
     </row>
@@ -4894,7 +4738,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>808</v>
+        <v>829</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -4906,14 +4750,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Stadler Tango</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>809</v>
+        <v>830</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -4927,7 +4775,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>NGT8</t>
+          <t>Stadler Tango</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4784,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>810</v>
+        <v>831</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -4948,14 +4796,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Stadler Tango</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>811</v>
+        <v>832</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -4969,7 +4821,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>NGT8</t>
+          <t>Stadler Tango</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4830,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>812</v>
+        <v>833</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -4992,7 +4844,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>NGT8</t>
+          <t>Stadler Tango</t>
         </is>
       </c>
     </row>
@@ -5001,7 +4853,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>813</v>
+        <v>836</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -5015,7 +4867,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>NGT8</t>
+          <t>Stadler Tango</t>
         </is>
       </c>
     </row>
@@ -5024,11 +4876,11 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>814</v>
+        <v>842</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5036,18 +4888,22 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Stadler Tango</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>815</v>
+        <v>843</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5062,11 +4918,11 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>816</v>
+        <v>845</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5076,7 +4932,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>NGT8</t>
+          <t>Stadler Tango</t>
         </is>
       </c>
     </row>
@@ -5085,11 +4941,11 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>817</v>
+        <v>846</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5097,22 +4953,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>NGT8</t>
-        </is>
-      </c>
+      <c r="E217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>818</v>
+        <v>847</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5120,18 +4972,22 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Stadler Tango</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>819</v>
+        <v>848</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5141,7 +4997,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>NGT8</t>
+          <t>Stadler Tango</t>
         </is>
       </c>
     </row>
@@ -5150,11 +5006,11 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>820</v>
+        <v>849</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5164,7 +5020,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>NGT8</t>
+          <t>Stadler Tango</t>
         </is>
       </c>
     </row>
@@ -5173,11 +5029,11 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>822</v>
+        <v>850</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5185,22 +5041,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>NGT8</t>
-        </is>
-      </c>
+      <c r="E221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>823</v>
+        <v>852</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5208,22 +5060,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>NGT8</t>
-        </is>
-      </c>
+      <c r="E222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>824</v>
+        <v>855</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -5233,7 +5081,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>NGT8</t>
+          <t>Stadler Tango</t>
         </is>
       </c>
     </row>
@@ -5242,11 +5090,11 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>825</v>
+        <v>856</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -5265,11 +5113,11 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>826</v>
+        <v>857</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -5288,11 +5136,11 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>827</v>
+        <v>859</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -5311,11 +5159,11 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>828</v>
+        <v>860</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -5334,11 +5182,11 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>829</v>
+        <v>863</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5357,11 +5205,11 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>831</v>
+        <v>864</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -5369,22 +5217,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>Stadler Tango</t>
-        </is>
-      </c>
+      <c r="E229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>832</v>
+        <v>865</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -5403,11 +5247,11 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>833</v>
+        <v>866</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -5426,11 +5270,11 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>834</v>
+        <v>867</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -5449,11 +5293,11 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>835</v>
+        <v>868</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -5472,11 +5316,11 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>836</v>
+        <v>869</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5495,11 +5339,11 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>837</v>
+        <v>871</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5518,11 +5362,11 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>838</v>
+        <v>874</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -5541,7 +5385,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>839</v>
+        <v>875</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -5555,7 +5399,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -5564,11 +5408,11 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>842</v>
+        <v>876</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5578,7 +5422,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -5587,11 +5431,11 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>843</v>
+        <v>878</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5606,11 +5450,11 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>844</v>
+        <v>879</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5620,7 +5464,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -5629,11 +5473,11 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>845</v>
+        <v>880</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -5643,7 +5487,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -5652,11 +5496,11 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>846</v>
+        <v>881</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -5666,7 +5510,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -5675,11 +5519,11 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>847</v>
+        <v>882</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -5689,7 +5533,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -5698,11 +5542,11 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>848</v>
+        <v>883</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -5712,7 +5556,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -5721,11 +5565,11 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>849</v>
+        <v>885</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -5735,7 +5579,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -5744,11 +5588,11 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>850</v>
+        <v>887</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -5758,7 +5602,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -5767,11 +5611,11 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>851</v>
+        <v>888</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -5781,7 +5625,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -5790,11 +5634,11 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>852</v>
+        <v>889</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -5804,7 +5648,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -5813,11 +5657,11 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>853</v>
+        <v>899</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -5825,32 +5669,28 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>Stadler Tango</t>
-        </is>
-      </c>
+      <c r="E249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>854</v>
+        <v>902</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>2014N</t>
         </is>
       </c>
     </row>
@@ -5859,67 +5699,59 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>855</v>
+        <v>903</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>Stadler Tango</t>
-        </is>
-      </c>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>856</v>
+        <v>904</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>Stadler Tango</t>
-        </is>
-      </c>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>857</v>
+        <v>906</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>2014N</t>
         </is>
       </c>
     </row>
@@ -5928,21 +5760,21 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>858</v>
+        <v>907</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>2014N</t>
         </is>
       </c>
     </row>
@@ -5951,21 +5783,21 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>859</v>
+        <v>908</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>2014N</t>
         </is>
       </c>
     </row>
@@ -5974,21 +5806,21 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>860</v>
+        <v>909</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>2014N</t>
         </is>
       </c>
     </row>
@@ -5997,40 +5829,44 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr"/>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>862</v>
+        <v>911</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>2014N</t>
         </is>
       </c>
     </row>
@@ -6039,40 +5875,44 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>863</v>
+        <v>913</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr"/>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>864</v>
+        <v>914</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>2014N</t>
         </is>
       </c>
     </row>
@@ -6081,7 +5921,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>865</v>
+        <v>915</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -6090,12 +5930,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>2014N</t>
         </is>
       </c>
     </row>
@@ -6104,7 +5944,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>866</v>
+        <v>922</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -6113,12 +5953,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>2014N</t>
         </is>
       </c>
     </row>
@@ -6127,7 +5967,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>867</v>
+        <v>924</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -6136,12 +5976,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>2014N</t>
         </is>
       </c>
     </row>
@@ -6150,7 +5990,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>868</v>
+        <v>925</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -6159,12 +5999,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>2014N</t>
         </is>
       </c>
     </row>
@@ -6173,7 +6013,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>869</v>
+        <v>926</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -6182,12 +6022,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>2014N</t>
         </is>
       </c>
     </row>
@@ -6196,7 +6036,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>870</v>
+        <v>927</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -6205,12 +6045,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>2014N</t>
         </is>
       </c>
     </row>
@@ -6219,7 +6059,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>871</v>
+        <v>928</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -6228,12 +6068,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>2014N</t>
         </is>
       </c>
     </row>
@@ -6242,7 +6082,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>872</v>
+        <v>930</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -6251,12 +6091,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>2014N</t>
         </is>
       </c>
     </row>
@@ -6265,7 +6105,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>874</v>
+        <v>932</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -6274,12 +6114,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>2014N</t>
         </is>
       </c>
     </row>
@@ -6288,881 +6128,19 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>875</v>
+        <v>933</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>876</v>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>877</v>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>878</v>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>879</v>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>881</v>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>882</v>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>883</v>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>884</v>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>885</v>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>886</v>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>887</v>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>888</v>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>889</v>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>899</v>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>903</v>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>906</v>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>907</v>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>908</v>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>909</v>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>910</v>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>911</v>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>913</v>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>914</v>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>915</v>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>916</v>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>918</v>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>919</v>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>922</v>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>923</v>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>924</v>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>925</v>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>926</v>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>927</v>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>928</v>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>930</v>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>932</v>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>933</v>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>936</v>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E308" t="inlineStr">
         <is>
           <t>2014N</t>
         </is>

--- a/data/generated/excel/vehicles_by_type.xlsx
+++ b/data/generated/excel/vehicles_by_type.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E270"/>
+  <dimension ref="A1:E294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,11 @@
           <t>W</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -628,11 +632,7 @@
           <t>W</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>E1</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -772,7 +772,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -791,11 +791,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -810,11 +810,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -829,7 +829,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -848,11 +848,11 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -867,16 +867,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -886,7 +886,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -898,18 +898,14 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>105N</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -928,7 +924,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -940,14 +936,18 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>105N</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -959,14 +959,18 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>105N</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -985,7 +989,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -997,14 +1001,18 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>105N</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1023,7 +1031,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1042,11 +1050,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1061,7 +1069,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1080,7 +1088,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1099,7 +1107,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1118,7 +1126,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1130,18 +1138,14 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>105N</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1153,14 +1157,18 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>105N</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1183,21 +1191,21 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>105N</t>
+          <t>GT8N</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1214,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1218,14 +1226,18 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>GT8N</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1248,7 +1260,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1260,18 +1272,14 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>GT8N</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1283,18 +1291,14 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>GT8N</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1306,14 +1310,18 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>GT8N</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1332,7 +1340,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1344,18 +1352,14 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>GT8N</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1374,7 +1378,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1393,7 +1397,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1412,7 +1416,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1431,7 +1435,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1450,7 +1454,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1469,7 +1473,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1492,7 +1496,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1504,14 +1508,18 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>GT8N</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1534,7 +1542,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1546,14 +1554,18 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>GT8N</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1565,14 +1577,18 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>GT8N</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1595,7 +1611,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1618,7 +1634,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1641,7 +1657,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1653,18 +1669,14 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>GT8N</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1683,7 +1695,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1695,14 +1707,18 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>GT8N</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1721,7 +1737,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1733,37 +1749,37 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>GT8N</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>329</v>
+        <v>401</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>EU8N</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1782,7 +1798,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1801,7 +1817,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1813,14 +1829,18 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>EU8N</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1832,18 +1852,14 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>EU8N</t>
-        </is>
-      </c>
+      <c r="E70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1855,14 +1871,18 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>EU8N</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1881,7 +1901,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1900,7 +1920,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1919,7 +1939,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1938,7 +1958,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1961,7 +1981,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1980,7 +2000,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2003,7 +2023,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2026,7 +2046,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2038,18 +2058,14 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>EU8N</t>
-        </is>
-      </c>
+      <c r="E80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2068,7 +2084,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2087,7 +2103,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2110,7 +2126,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2122,7 +2138,11 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>EU8N</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2179,11 +2199,7 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>EU8N</t>
-        </is>
-      </c>
+      <c r="E87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2202,11 +2218,7 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>EU8N</t>
-        </is>
-      </c>
+      <c r="E88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2313,11 +2325,7 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>EU8N</t>
-        </is>
-      </c>
+      <c r="E93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2416,11 +2424,7 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>EU8N</t>
-        </is>
-      </c>
+      <c r="E98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2439,11 +2443,7 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>EU8N</t>
-        </is>
-      </c>
+      <c r="E99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2500,11 +2500,7 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>EU8N</t>
-        </is>
-      </c>
+      <c r="E102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2542,7 +2538,11 @@
           <t>L</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>EU8N</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2683,14 +2683,18 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>N8S-NF</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2702,18 +2706,14 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>N8S-NF</t>
-        </is>
-      </c>
+      <c r="E112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2725,37 +2725,37 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>N8S-NF</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>601</v>
+        <v>462</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>NGT6 (1)</t>
-        </is>
-      </c>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2767,18 +2767,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>NGT6 (1)</t>
-        </is>
-      </c>
+      <c r="E115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2801,7 +2797,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2813,14 +2809,18 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>NGT6 (1)</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2832,18 +2832,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>NGT6 (1)</t>
-        </is>
-      </c>
+      <c r="E118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2862,7 +2858,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2874,18 +2870,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>NGT6 (1)</t>
-        </is>
-      </c>
+      <c r="E120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2897,14 +2889,18 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>NGT6 (1)</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2923,7 +2919,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2935,18 +2931,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>NGT6 (1)</t>
-        </is>
-      </c>
+      <c r="E123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2958,14 +2950,18 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>NGT6 (1)</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2984,7 +2980,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2996,18 +2992,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>NGT6 (1)</t>
-        </is>
-      </c>
+      <c r="E126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -3019,18 +3011,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>NGT6 (1)</t>
-        </is>
-      </c>
+      <c r="E127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3044,7 +3032,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>NGT6 (2)</t>
+          <t>NGT6 (1)</t>
         </is>
       </c>
     </row>
@@ -3053,7 +3041,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -3076,7 +3064,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -3099,7 +3087,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3118,7 +3106,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3130,14 +3118,18 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>NGT6 (2)</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -3149,14 +3141,18 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>NGT6 (2)</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -3168,18 +3164,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>NGT6 (2)</t>
-        </is>
-      </c>
+      <c r="E134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3202,7 +3194,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3225,7 +3217,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3237,14 +3229,18 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>NGT6 (2)</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3256,18 +3252,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>NGT6 (3)</t>
-        </is>
-      </c>
+      <c r="E138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -3279,14 +3271,18 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>NGT6 (3)</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -3305,7 +3301,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3324,7 +3320,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3347,7 +3343,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -3366,7 +3362,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -3378,14 +3374,18 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>NGT6 (3)</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3420,14 +3420,18 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>NGT6 (3)</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3439,18 +3443,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>NGT6 (3)</t>
-        </is>
-      </c>
+      <c r="E147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3462,14 +3462,18 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>NGT6 (3)</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3488,7 +3492,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3507,7 +3511,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3530,7 +3534,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3553,7 +3557,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3565,14 +3569,18 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>NGT6 (3)</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3584,14 +3592,18 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>NGT6 (3)</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3603,18 +3615,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>NGT6 (3)</t>
-        </is>
-      </c>
+      <c r="E155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -3626,18 +3634,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>NGT6 (3)</t>
-        </is>
-      </c>
+      <c r="E156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -3656,7 +3660,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -3668,18 +3672,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>NGT6 (3)</t>
-        </is>
-      </c>
+      <c r="E158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -3691,18 +3691,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>NGT6 (3)</t>
-        </is>
-      </c>
+      <c r="E159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -3714,32 +3710,28 @@
           <t>P</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>NGT6 (3)</t>
-        </is>
-      </c>
+      <c r="E160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>701</v>
+        <v>650</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Stadler Tango II</t>
+          <t>NGT6 (3)</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3740,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -3771,7 +3763,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3794,7 +3786,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -3817,7 +3809,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -3840,7 +3832,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -3863,7 +3855,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -3875,14 +3867,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Stadler Tango II</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -3905,7 +3901,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -3928,7 +3924,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -3951,7 +3947,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3974,7 +3970,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3986,14 +3982,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Stadler Tango II</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -4005,14 +4005,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Stadler Tango II</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -4024,14 +4028,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Stadler Tango II</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -4043,14 +4051,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Stadler Tango II</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -4073,7 +4085,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -4096,7 +4108,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -4119,7 +4131,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -4142,7 +4154,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -4154,18 +4166,14 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
+      <c r="E180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -4188,7 +4196,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -4211,7 +4219,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -4230,7 +4238,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -4253,7 +4261,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -4265,14 +4273,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr"/>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Stadler Tango II</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -4295,11 +4307,11 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>801</v>
+        <v>731</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4307,18 +4319,22 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Stadler Tango II</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>803</v>
+        <v>733</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4328,7 +4344,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>NGT8</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -4337,11 +4353,11 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>804</v>
+        <v>735</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4351,7 +4367,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>NGT8</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -4360,11 +4376,11 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>805</v>
+        <v>736</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4372,18 +4388,22 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Stadler Tango II</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>806</v>
+        <v>737</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4393,7 +4413,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>NGT8</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -4402,11 +4422,11 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>808</v>
+        <v>739</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4416,7 +4436,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>NGT8</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -4425,11 +4445,11 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>809</v>
+        <v>740</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4437,18 +4457,22 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Stadler Tango II</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>810</v>
+        <v>741</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4458,7 +4482,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>NGT8</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -4467,11 +4491,11 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>811</v>
+        <v>742</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4481,7 +4505,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>NGT8</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -4490,11 +4514,11 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>812</v>
+        <v>743</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4502,22 +4526,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>NGT8</t>
-        </is>
-      </c>
+      <c r="E196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>814</v>
+        <v>745</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -4525,14 +4545,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Stadler Tango II</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -4544,14 +4568,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr"/>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>NGT8</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -4574,7 +4602,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -4597,7 +4625,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -4609,14 +4637,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr"/>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>NGT8</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -4635,7 +4667,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -4647,18 +4679,14 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>NGT8</t>
-        </is>
-      </c>
+      <c r="E203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -4670,14 +4698,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr"/>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>NGT8</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -4689,14 +4721,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>NGT8</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -4715,7 +4751,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -4727,18 +4763,14 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Stadler Tango</t>
-        </is>
-      </c>
+      <c r="E207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -4752,7 +4784,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>NGT8</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4793,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -4773,18 +4805,14 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Stadler Tango</t>
-        </is>
-      </c>
+      <c r="E209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -4796,18 +4824,14 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Stadler Tango</t>
-        </is>
-      </c>
+      <c r="E210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -4821,7 +4845,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>NGT8</t>
         </is>
       </c>
     </row>
@@ -4830,7 +4854,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -4842,18 +4866,14 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Stadler Tango</t>
-        </is>
-      </c>
+      <c r="E212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -4865,22 +4885,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>Stadler Tango</t>
-        </is>
-      </c>
+      <c r="E213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>842</v>
+        <v>820</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -4890,7 +4906,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Stadler Tango</t>
+          <t>NGT8</t>
         </is>
       </c>
     </row>
@@ -4899,11 +4915,11 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>843</v>
+        <v>821</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -4911,18 +4927,22 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>NGT8</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>845</v>
+        <v>822</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -4930,22 +4950,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>Stadler Tango</t>
-        </is>
-      </c>
+      <c r="E216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>846</v>
+        <v>824</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -4953,18 +4969,22 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr"/>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>NGT8</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>847</v>
+        <v>825</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -4983,11 +5003,11 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5006,11 +5026,11 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5029,11 +5049,11 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>850</v>
+        <v>832</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5041,18 +5061,22 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr"/>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Stadler Tango</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>852</v>
+        <v>833</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5060,18 +5084,22 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Stadler Tango</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -5090,11 +5118,11 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -5113,11 +5141,11 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -5125,22 +5153,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>Stadler Tango</t>
-        </is>
-      </c>
+      <c r="E225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>859</v>
+        <v>837</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -5159,11 +5183,11 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>860</v>
+        <v>838</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -5182,11 +5206,11 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>863</v>
+        <v>839</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5205,7 +5229,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>864</v>
+        <v>841</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -5224,7 +5248,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>865</v>
+        <v>842</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -5247,7 +5271,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>866</v>
+        <v>843</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -5259,18 +5283,14 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>Stadler Tango</t>
-        </is>
-      </c>
+      <c r="E231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>867</v>
+        <v>844</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -5293,7 +5313,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>868</v>
+        <v>845</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -5316,7 +5336,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>869</v>
+        <v>846</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -5339,7 +5359,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>871</v>
+        <v>847</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -5362,7 +5382,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>874</v>
+        <v>850</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -5385,11 +5405,11 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>875</v>
+        <v>851</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -5399,7 +5419,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Stadler Tango II</t>
+          <t>Stadler Tango</t>
         </is>
       </c>
     </row>
@@ -5408,11 +5428,11 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>876</v>
+        <v>852</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5422,7 +5442,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Stadler Tango II</t>
+          <t>Stadler Tango</t>
         </is>
       </c>
     </row>
@@ -5431,11 +5451,11 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>878</v>
+        <v>855</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5443,18 +5463,22 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr"/>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Stadler Tango</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>879</v>
+        <v>856</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5464,7 +5488,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Stadler Tango II</t>
+          <t>Stadler Tango</t>
         </is>
       </c>
     </row>
@@ -5473,11 +5497,11 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>880</v>
+        <v>857</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -5487,7 +5511,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Stadler Tango II</t>
+          <t>Stadler Tango</t>
         </is>
       </c>
     </row>
@@ -5496,11 +5520,11 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>881</v>
+        <v>858</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -5508,22 +5532,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
+      <c r="E242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>882</v>
+        <v>859</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -5533,7 +5553,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Stadler Tango II</t>
+          <t>Stadler Tango</t>
         </is>
       </c>
     </row>
@@ -5542,11 +5562,11 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>883</v>
+        <v>860</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -5556,7 +5576,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Stadler Tango II</t>
+          <t>Stadler Tango</t>
         </is>
       </c>
     </row>
@@ -5565,11 +5585,11 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>885</v>
+        <v>861</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -5579,7 +5599,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Stadler Tango II</t>
+          <t>Stadler Tango</t>
         </is>
       </c>
     </row>
@@ -5588,11 +5608,11 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>887</v>
+        <v>862</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -5602,7 +5622,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Stadler Tango II</t>
+          <t>Stadler Tango</t>
         </is>
       </c>
     </row>
@@ -5611,11 +5631,11 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>888</v>
+        <v>864</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -5625,7 +5645,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Stadler Tango II</t>
+          <t>Stadler Tango</t>
         </is>
       </c>
     </row>
@@ -5634,11 +5654,11 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>889</v>
+        <v>866</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -5646,22 +5666,18 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>Stadler Tango II</t>
-        </is>
-      </c>
+      <c r="E248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>899</v>
+        <v>867</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -5669,28 +5685,32 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr"/>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Stadler Tango</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>902</v>
+        <v>868</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>2014N</t>
+          <t>Stadler Tango</t>
         </is>
       </c>
     </row>
@@ -5699,59 +5719,67 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>903</v>
+        <v>869</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr"/>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Stadler Tango</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>904</v>
+        <v>871</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr"/>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Stadler Tango</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>906</v>
+        <v>872</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>2014N</t>
+          <t>Stadler Tango</t>
         </is>
       </c>
     </row>
@@ -5760,21 +5788,21 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>907</v>
+        <v>874</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>2014N</t>
+          <t>Stadler Tango</t>
         </is>
       </c>
     </row>
@@ -5783,7 +5811,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>908</v>
+        <v>875</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -5792,12 +5820,12 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>2014N</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5834,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>909</v>
+        <v>876</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -5815,12 +5843,12 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>2014N</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5857,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>910</v>
+        <v>877</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -5838,12 +5866,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>2014N</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5880,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>911</v>
+        <v>878</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -5861,12 +5889,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>2014N</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -5875,7 +5903,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>913</v>
+        <v>879</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -5884,12 +5912,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>2014N</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -5898,7 +5926,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>914</v>
+        <v>880</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -5907,12 +5935,12 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>2014N</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -5921,21 +5949,21 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>915</v>
+        <v>881</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>2014N</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -5944,21 +5972,21 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>922</v>
+        <v>882</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>2014N</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -5967,21 +5995,21 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>924</v>
+        <v>883</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>2014N</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -5990,21 +6018,21 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>925</v>
+        <v>884</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>2014N</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -6013,21 +6041,21 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>926</v>
+        <v>885</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>2014N</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -6036,21 +6064,21 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>927</v>
+        <v>886</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>2014N</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -6059,21 +6087,21 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>928</v>
+        <v>887</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>2014N</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -6082,21 +6110,21 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>930</v>
+        <v>889</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>2014N</t>
+          <t>Stadler Tango II</t>
         </is>
       </c>
     </row>
@@ -6105,44 +6133,588 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>932</v>
+        <v>899</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>2014N</t>
-        </is>
-      </c>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
       <c r="B270" t="n">
+        <v>902</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>903</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>904</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>906</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>907</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>908</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>909</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>910</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>913</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>914</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>915</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>916</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>918</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>919</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>922</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>923</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>924</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>925</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>927</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>930</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>931</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>932</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
         <v>933</v>
       </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr">
+      <c r="E292" t="inlineStr">
         <is>
           <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>934</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2014N</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>999</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>405N</t>
         </is>
       </c>
     </row>
